--- a/db/scheme.xlsx
+++ b/db/scheme.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tony9\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tony9\gitproj\pday\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{638FFECD-CF85-4ED7-AD2C-7FCE0DCEA4F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78040D86-9C21-4724-B76E-A2E3570F180C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6330" yWindow="3750" windowWidth="33705" windowHeight="12510" xr2:uid="{24D82B86-2703-4911-8688-30A00BAD078E}"/>
+    <workbookView xWindow="7575" yWindow="8925" windowWidth="28800" windowHeight="15405" xr2:uid="{24D82B86-2703-4911-8688-30A00BAD078E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
   <si>
     <t>request</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,10 +91,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>req_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>스드메에 대한 취향 정보</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -176,6 +172,14 @@
   </si>
   <si>
     <t>정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suggest_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>request_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -322,7 +326,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -378,6 +382,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -694,45 +701,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA17A188-3D78-43F9-A900-D06B37989885}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F19"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="37.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>32</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
@@ -741,10 +748,10 @@
     </row>
     <row r="3" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
@@ -753,7 +760,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>0</v>
@@ -816,12 +823,12 @@
         <v>5</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -863,7 +870,7 @@
       <c r="A12" s="3"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>7</v>
@@ -871,59 +878,57 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D14" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E14" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F14" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="2"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F16" s="2"/>
     </row>
@@ -931,7 +936,7 @@
       <c r="A17" s="3"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>7</v>
@@ -945,15 +950,15 @@
       <c r="A18" s="3"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="E18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
@@ -962,15 +967,30 @@
         <v>18</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>